--- a/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955083573916115</v>
+        <v>1.021429655518605</v>
       </c>
       <c r="D2">
-        <v>1.015067895639567</v>
+        <v>1.036768888549581</v>
       </c>
       <c r="E2">
-        <v>1.000123568165952</v>
+        <v>1.02251672178669</v>
       </c>
       <c r="F2">
-        <v>1.003564684580009</v>
+        <v>1.026211717299662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043329723777857</v>
+        <v>1.056256920247073</v>
       </c>
       <c r="J2">
-        <v>1.017824247743244</v>
+        <v>1.042987770506839</v>
       </c>
       <c r="K2">
-        <v>1.026321227331791</v>
+        <v>1.047738681400041</v>
       </c>
       <c r="L2">
-        <v>1.011581181756031</v>
+        <v>1.033671028454344</v>
       </c>
       <c r="M2">
-        <v>1.014974580078199</v>
+        <v>1.037317570800743</v>
       </c>
       <c r="N2">
-        <v>1.019269674921113</v>
+        <v>1.044468932773329</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004358806457542</v>
+        <v>1.028830036347626</v>
       </c>
       <c r="D3">
-        <v>1.022021911168215</v>
+        <v>1.042719293652222</v>
       </c>
       <c r="E3">
-        <v>1.007800808032418</v>
+        <v>1.02895530783695</v>
       </c>
       <c r="F3">
-        <v>1.012641049451204</v>
+        <v>1.034164975649649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046886880494929</v>
+        <v>1.059698490309269</v>
       </c>
       <c r="J3">
-        <v>1.024731347208047</v>
+        <v>1.048564471395241</v>
       </c>
       <c r="K3">
-        <v>1.032380562906152</v>
+        <v>1.05283326299541</v>
       </c>
       <c r="L3">
-        <v>1.018334839666598</v>
+        <v>1.039230634492158</v>
       </c>
       <c r="M3">
-        <v>1.023114700858848</v>
+        <v>1.044378603190247</v>
       </c>
       <c r="N3">
-        <v>1.026186583259412</v>
+        <v>1.050053553216648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009873424467654</v>
+        <v>1.033465233014108</v>
       </c>
       <c r="D4">
-        <v>1.026357446708631</v>
+        <v>1.04644837993065</v>
       </c>
       <c r="E4">
-        <v>1.01258455807216</v>
+        <v>1.032987243411158</v>
       </c>
       <c r="F4">
-        <v>1.018304148112391</v>
+        <v>1.039153013450119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049087905678483</v>
+        <v>1.061841170465745</v>
       </c>
       <c r="J4">
-        <v>1.029027895250013</v>
+        <v>1.052049976008732</v>
       </c>
       <c r="K4">
-        <v>1.036147836818751</v>
+        <v>1.056016760316325</v>
       </c>
       <c r="L4">
-        <v>1.022533434687805</v>
+        <v>1.042703198171115</v>
       </c>
       <c r="M4">
-        <v>1.028186565698906</v>
+        <v>1.048800790002296</v>
       </c>
       <c r="N4">
-        <v>1.030489232892418</v>
+        <v>1.053544007646483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012144433436875</v>
+        <v>1.035379269260742</v>
       </c>
       <c r="D5">
-        <v>1.028143370873609</v>
+        <v>1.047988669138518</v>
       </c>
       <c r="E5">
-        <v>1.014554524850968</v>
+        <v>1.034651906937351</v>
       </c>
       <c r="F5">
-        <v>1.020638123001835</v>
+        <v>1.04121433824515</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04999056431606</v>
+        <v>1.062722816727995</v>
       </c>
       <c r="J5">
-        <v>1.030795494464382</v>
+        <v>1.053487439192907</v>
       </c>
       <c r="K5">
-        <v>1.037697201499595</v>
+        <v>1.05732949596606</v>
       </c>
       <c r="L5">
-        <v>1.024260129648724</v>
+        <v>1.044134775886413</v>
       </c>
       <c r="M5">
-        <v>1.030275164899409</v>
+        <v>1.050626757842201</v>
       </c>
       <c r="N5">
-        <v>1.032259342300417</v>
+        <v>1.054983512193259</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012523063970427</v>
+        <v>1.035698673299664</v>
       </c>
       <c r="D6">
-        <v>1.028441150936131</v>
+        <v>1.048245726642535</v>
       </c>
       <c r="E6">
-        <v>1.014882958550973</v>
+        <v>1.034929679697522</v>
       </c>
       <c r="F6">
-        <v>1.021027357595184</v>
+        <v>1.041558414875204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05014083574323</v>
+        <v>1.062869755173897</v>
       </c>
       <c r="J6">
-        <v>1.031090087765252</v>
+        <v>1.053727206839199</v>
       </c>
       <c r="K6">
-        <v>1.037955393455704</v>
+        <v>1.057548448412876</v>
       </c>
       <c r="L6">
-        <v>1.024547869902032</v>
+        <v>1.04437352937786</v>
       </c>
       <c r="M6">
-        <v>1.030623377830258</v>
+        <v>1.050931459112935</v>
       </c>
       <c r="N6">
-        <v>1.032554353957564</v>
+        <v>1.055223620337111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009903951492047</v>
+        <v>1.033490941763723</v>
       </c>
       <c r="D7">
-        <v>1.026381451462589</v>
+        <v>1.046469067071297</v>
       </c>
       <c r="E7">
-        <v>1.012611038822539</v>
+        <v>1.033009603790579</v>
       </c>
       <c r="F7">
-        <v>1.018335514356624</v>
+        <v>1.039180694224661</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04910005424809</v>
+        <v>1.06185302496171</v>
       </c>
       <c r="J7">
-        <v>1.029051662585048</v>
+        <v>1.052069290851725</v>
       </c>
       <c r="K7">
-        <v>1.036168671734031</v>
+        <v>1.0560343999415</v>
       </c>
       <c r="L7">
-        <v>1.022556654431082</v>
+        <v>1.042722436114622</v>
       </c>
       <c r="M7">
-        <v>1.028214641115948</v>
+        <v>1.04882531627467</v>
       </c>
       <c r="N7">
-        <v>1.030513033979795</v>
+        <v>1.053563349918768</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985455595698259</v>
+        <v>1.023963731728811</v>
       </c>
       <c r="D8">
-        <v>1.01745366853229</v>
+        <v>1.038805966587173</v>
       </c>
       <c r="E8">
-        <v>1.002758068778393</v>
+        <v>1.024721594059437</v>
       </c>
       <c r="F8">
-        <v>1.006677756476001</v>
+        <v>1.02893373891011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044553657068879</v>
+        <v>1.057438109776056</v>
       </c>
       <c r="J8">
-        <v>1.020196036338997</v>
+        <v>1.044898919980204</v>
       </c>
       <c r="K8">
-        <v>1.028402297024463</v>
+        <v>1.049484742005082</v>
       </c>
       <c r="L8">
-        <v>1.013900809433999</v>
+        <v>1.035576792669142</v>
       </c>
       <c r="M8">
-        <v>1.017768026742968</v>
+        <v>1.039735543909382</v>
       </c>
       <c r="N8">
-        <v>1.021644831728719</v>
+        <v>1.046382796298157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9767263128912814</v>
+        <v>1.005895175832139</v>
       </c>
       <c r="D9">
-        <v>1.000332055771483</v>
+        <v>1.024293860183205</v>
       </c>
       <c r="E9">
-        <v>0.9838370687534322</v>
+        <v>1.008999575512778</v>
       </c>
       <c r="F9">
-        <v>0.984348924552752</v>
+        <v>1.009552772653734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035696216599376</v>
+        <v>1.048961463471425</v>
       </c>
       <c r="J9">
-        <v>1.00312856862098</v>
+        <v>1.031241464048323</v>
       </c>
       <c r="K9">
-        <v>1.013419747898735</v>
+        <v>1.037004710103183</v>
       </c>
       <c r="L9">
-        <v>0.9971979369551622</v>
+        <v>1.021948309050594</v>
       </c>
       <c r="M9">
-        <v>0.9977011382491895</v>
+        <v>1.022492741015826</v>
       </c>
       <c r="N9">
-        <v>1.004553126248877</v>
+        <v>1.032705945212321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9606714335448263</v>
+        <v>0.992819884396638</v>
       </c>
       <c r="D10">
-        <v>0.9877653982170492</v>
+        <v>1.013813279268315</v>
       </c>
       <c r="E10">
-        <v>0.9699278073902918</v>
+        <v>0.9976251228973853</v>
       </c>
       <c r="F10">
-        <v>0.9679670253059407</v>
+        <v>0.9955623162633895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02909892699218</v>
+        <v>1.042759382197581</v>
       </c>
       <c r="J10">
-        <v>0.9905372559513261</v>
+        <v>1.021321302024183</v>
       </c>
       <c r="K10">
-        <v>1.00235912253035</v>
+        <v>1.027937530549207</v>
       </c>
       <c r="L10">
-        <v>0.9848621149341288</v>
+        <v>1.012037389283614</v>
       </c>
       <c r="M10">
-        <v>0.9829397765239026</v>
+        <v>1.010012159401033</v>
       </c>
       <c r="N10">
-        <v>0.9919439324709882</v>
+        <v>1.022771695420248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532785381633115</v>
+        <v>0.9868689387141474</v>
       </c>
       <c r="D11">
-        <v>0.9819895775958355</v>
+        <v>1.009050000526563</v>
       </c>
       <c r="E11">
-        <v>0.963528454536243</v>
+        <v>0.9924503235149148</v>
       </c>
       <c r="F11">
-        <v>0.9604357506199123</v>
+        <v>0.9892026820651565</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026043416319613</v>
+        <v>1.039921201004956</v>
       </c>
       <c r="J11">
-        <v>0.9847329771742726</v>
+        <v>1.016798375255032</v>
       </c>
       <c r="K11">
-        <v>0.9972593288798925</v>
+        <v>1.023803241635098</v>
       </c>
       <c r="L11">
-        <v>0.9791725814763239</v>
+        <v>1.007516034061852</v>
       </c>
       <c r="M11">
-        <v>0.976144456613077</v>
+        <v>1.00433113358975</v>
       </c>
       <c r="N11">
-        <v>0.9861314109523114</v>
+        <v>1.018242345576298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9504574804830639</v>
+        <v>0.9846105238169643</v>
       </c>
       <c r="D12">
-        <v>0.9797875425196663</v>
+        <v>1.00724349137305</v>
       </c>
       <c r="E12">
-        <v>0.9610876067847245</v>
+        <v>0.990486904290793</v>
       </c>
       <c r="F12">
-        <v>0.9575638013158899</v>
+        <v>0.9867903036951382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024874958214672</v>
+        <v>1.03884184726788</v>
       </c>
       <c r="J12">
-        <v>0.982517337020312</v>
+        <v>1.01508078261354</v>
       </c>
       <c r="K12">
-        <v>0.9953125039665507</v>
+        <v>1.022233220942139</v>
       </c>
       <c r="L12">
-        <v>0.9770003083227777</v>
+        <v>1.005798658187984</v>
       </c>
       <c r="M12">
-        <v>0.9735518175259161</v>
+        <v>1.002175033265093</v>
       </c>
       <c r="N12">
-        <v>0.9839126243351947</v>
+        <v>1.016522313756244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9510661601999741</v>
+        <v>0.9850972118651615</v>
       </c>
       <c r="D13">
-        <v>0.9802625656930426</v>
+        <v>1.007632737675936</v>
       </c>
       <c r="E13">
-        <v>0.9616141979238475</v>
+        <v>0.9909099983943507</v>
       </c>
       <c r="F13">
-        <v>0.9581833739781566</v>
+        <v>0.9873101203311277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025127178553915</v>
+        <v>1.039074548089338</v>
       </c>
       <c r="J13">
-        <v>0.98299542251673</v>
+        <v>1.015450972623741</v>
       </c>
       <c r="K13">
-        <v>0.9957325887435392</v>
+        <v>1.022571605209815</v>
       </c>
       <c r="L13">
-        <v>0.9774690553637863</v>
+        <v>1.006168818316769</v>
       </c>
       <c r="M13">
-        <v>0.9741111936769151</v>
+        <v>1.002639678184453</v>
       </c>
       <c r="N13">
-        <v>0.9843913887678547</v>
+        <v>1.016893029478721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530469354177799</v>
+        <v>0.986683264432498</v>
       </c>
       <c r="D14">
-        <v>0.9818087534722447</v>
+        <v>1.008901454477421</v>
       </c>
       <c r="E14">
-        <v>0.9633280426875251</v>
+        <v>0.9922888922847619</v>
       </c>
       <c r="F14">
-        <v>0.9601999306163188</v>
+        <v>0.9890043270101372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025947538187585</v>
+        <v>1.039832507697994</v>
       </c>
       <c r="J14">
-        <v>0.9845510927267743</v>
+        <v>1.016657186530139</v>
       </c>
       <c r="K14">
-        <v>0.9970995134983462</v>
+        <v>1.023674183681097</v>
       </c>
       <c r="L14">
-        <v>0.9789942657145768</v>
+        <v>1.007374870745273</v>
       </c>
       <c r="M14">
-        <v>0.9759315980458723</v>
+        <v>1.004153873561027</v>
       </c>
       <c r="N14">
-        <v>0.985949268208035</v>
+        <v>1.018100956347221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9542571268841529</v>
+        <v>0.9876539812710698</v>
       </c>
       <c r="D15">
-        <v>0.9827536935301643</v>
+        <v>1.009678111524584</v>
       </c>
       <c r="E15">
-        <v>0.9643752981772642</v>
+        <v>0.9931328838112333</v>
       </c>
       <c r="F15">
-        <v>0.9614322364360041</v>
+        <v>0.9900413855861728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026448428667535</v>
+        <v>1.040296111018429</v>
       </c>
       <c r="J15">
-        <v>0.9855014609690712</v>
+        <v>1.017395285172078</v>
       </c>
       <c r="K15">
-        <v>0.9979345643701605</v>
+        <v>1.024348865327185</v>
       </c>
       <c r="L15">
-        <v>0.9799259696975684</v>
+        <v>1.008112821243571</v>
       </c>
       <c r="M15">
-        <v>0.9770438621465146</v>
+        <v>1.005080595167512</v>
       </c>
       <c r="N15">
-        <v>0.9869009860822449</v>
+        <v>1.018840103173893</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611520741266706</v>
+        <v>0.99320836435939</v>
       </c>
       <c r="D16">
-        <v>0.9881411557837408</v>
+        <v>1.01412438059921</v>
       </c>
       <c r="E16">
-        <v>0.9703439876863983</v>
+        <v>0.9979629890201803</v>
       </c>
       <c r="F16">
-        <v>0.9684569195054993</v>
+        <v>0.9959776339935447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029297227014332</v>
+        <v>1.042944346748006</v>
       </c>
       <c r="J16">
-        <v>0.9909144982522826</v>
+        <v>1.021616402216509</v>
       </c>
       <c r="K16">
-        <v>1.00269055972984</v>
+        <v>1.02820727052378</v>
       </c>
       <c r="L16">
-        <v>0.9852318389157728</v>
+        <v>1.012332333775969</v>
       </c>
       <c r="M16">
-        <v>0.9833816141117286</v>
+        <v>1.010383002731864</v>
       </c>
       <c r="N16">
-        <v>0.9923217104992825</v>
+        <v>1.023067214688695</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9653533394428978</v>
+        <v>0.996612053318232</v>
       </c>
       <c r="D17">
-        <v>0.991426886404444</v>
+        <v>1.016850888374594</v>
       </c>
       <c r="E17">
-        <v>0.973982451453275</v>
+        <v>1.000923466517577</v>
       </c>
       <c r="F17">
-        <v>0.9727404427771722</v>
+        <v>0.9996173402742101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031028607797799</v>
+        <v>1.04456319547163</v>
       </c>
       <c r="J17">
-        <v>0.9942112770328656</v>
+        <v>1.024201050783851</v>
       </c>
       <c r="K17">
-        <v>1.005586921885255</v>
+        <v>1.03056977350166</v>
       </c>
       <c r="L17">
-        <v>0.9884625774178571</v>
+        <v>1.014915323371867</v>
       </c>
       <c r="M17">
-        <v>0.9872439305127424</v>
+        <v>1.013632082229809</v>
       </c>
       <c r="N17">
-        <v>0.9956231710838797</v>
+        <v>1.025655533753467</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9677619836330518</v>
+        <v>0.9985697952153505</v>
       </c>
       <c r="D18">
-        <v>0.9933116246058216</v>
+        <v>1.018419746772125</v>
       </c>
       <c r="E18">
-        <v>0.9760689300923668</v>
+        <v>1.002626462783658</v>
       </c>
       <c r="F18">
-        <v>0.9751973756052529</v>
+        <v>1.001711571206272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03201958538706</v>
+        <v>1.045492878856334</v>
       </c>
       <c r="J18">
-        <v>0.9961007717838062</v>
+        <v>1.02568694306265</v>
       </c>
       <c r="K18">
-        <v>1.007246815557423</v>
+        <v>1.03192792965403</v>
       </c>
       <c r="L18">
-        <v>0.9903139392544916</v>
+        <v>1.016400013545278</v>
       </c>
       <c r="M18">
-        <v>0.9894584239933972</v>
+        <v>1.015500825959379</v>
       </c>
       <c r="N18">
-        <v>0.9975153491340948</v>
+        <v>1.027143536169736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9685764045985223</v>
+        <v>0.9992327844863765</v>
       </c>
       <c r="D19">
-        <v>0.9939490580169443</v>
+        <v>1.018951141062345</v>
       </c>
       <c r="E19">
-        <v>0.9767744966140751</v>
+        <v>1.003203209540932</v>
       </c>
       <c r="F19">
-        <v>0.9760283135115441</v>
+        <v>1.002420908413719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03235437570204</v>
+        <v>1.045807468261343</v>
       </c>
       <c r="J19">
-        <v>0.9967395506355536</v>
+        <v>1.026190010719094</v>
       </c>
       <c r="K19">
-        <v>1.007807953294837</v>
+        <v>1.03238774541562</v>
       </c>
       <c r="L19">
-        <v>0.9909397780303453</v>
+        <v>1.01690263162991</v>
       </c>
       <c r="M19">
-        <v>0.9902072247023902</v>
+        <v>1.016133664428099</v>
       </c>
       <c r="N19">
-        <v>0.9981550351250804</v>
+        <v>1.027647318239954</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9649069735619457</v>
+        <v>0.9962497521668564</v>
       </c>
       <c r="D20">
-        <v>0.9910776875222692</v>
+        <v>1.016560603366973</v>
       </c>
       <c r="E20">
-        <v>0.9735958274326335</v>
+        <v>1.00060832260924</v>
       </c>
       <c r="F20">
-        <v>0.9722852192818319</v>
+        <v>0.999229840292467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030844826826018</v>
+        <v>1.04439102957865</v>
       </c>
       <c r="J20">
-        <v>0.9938610697344984</v>
+        <v>1.023926008975174</v>
       </c>
       <c r="K20">
-        <v>1.005279260603471</v>
+        <v>1.030318373597376</v>
       </c>
       <c r="L20">
-        <v>0.9881194147290066</v>
+        <v>1.014640483824724</v>
       </c>
       <c r="M20">
-        <v>0.9868335577602043</v>
+        <v>1.013286245562053</v>
       </c>
       <c r="N20">
-        <v>0.9952724664509794</v>
+        <v>1.025380101353874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9524657958012424</v>
+        <v>0.986217575210907</v>
       </c>
       <c r="D21">
-        <v>0.9813550607360656</v>
+        <v>1.008528906051634</v>
       </c>
       <c r="E21">
-        <v>0.9628251858627841</v>
+        <v>0.9918840146362651</v>
       </c>
       <c r="F21">
-        <v>0.959608239993661</v>
+        <v>0.9885068512732472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025706920281188</v>
+        <v>1.039610020336806</v>
       </c>
       <c r="J21">
-        <v>0.9840946947178593</v>
+        <v>1.016303053744327</v>
       </c>
       <c r="K21">
-        <v>0.9966984913907208</v>
+        <v>1.023350477434647</v>
       </c>
       <c r="L21">
-        <v>0.9785468156330741</v>
+        <v>1.007020795646615</v>
       </c>
       <c r="M21">
-        <v>0.9753974980951539</v>
+        <v>1.003709286121699</v>
       </c>
       <c r="N21">
-        <v>0.9854922220615975</v>
+        <v>1.017746320652233</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442038986161346</v>
+        <v>0.9796296686391938</v>
       </c>
       <c r="D22">
-        <v>0.9749102373474892</v>
+        <v>1.003261682152682</v>
       </c>
       <c r="E22">
-        <v>0.9556791850584878</v>
+        <v>0.9861576406876738</v>
       </c>
       <c r="F22">
-        <v>0.9512010450305436</v>
+        <v>0.9814719337649395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022280318131904</v>
+        <v>1.0364573003294</v>
       </c>
       <c r="J22">
-        <v>0.9776045679639215</v>
+        <v>1.011290723575012</v>
       </c>
       <c r="K22">
-        <v>0.9909956689048465</v>
+        <v>1.018768800221924</v>
       </c>
       <c r="L22">
-        <v>0.9721829220886345</v>
+        <v>1.002008396969077</v>
       </c>
       <c r="M22">
-        <v>0.9678054279873408</v>
+        <v>0.9974195929302297</v>
       </c>
       <c r="N22">
-        <v>0.9789928785832416</v>
+        <v>1.012726872399156</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.948628748861617</v>
+        <v>0.9831502971988026</v>
       </c>
       <c r="D23">
-        <v>0.9783606884795764</v>
+        <v>1.006075809543504</v>
       </c>
       <c r="E23">
-        <v>0.9595056849533931</v>
+        <v>0.9892175574311755</v>
       </c>
       <c r="F23">
-        <v>0.9557026298030807</v>
+        <v>0.9852308432272868</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024116826496956</v>
+        <v>1.038143343210725</v>
       </c>
       <c r="J23">
-        <v>0.981080864807494</v>
+        <v>1.013969931740908</v>
       </c>
       <c r="K23">
-        <v>0.9940502928669113</v>
+        <v>1.021217811454556</v>
       </c>
       <c r="L23">
-        <v>0.97559183304521</v>
+        <v>1.004687842751294</v>
       </c>
       <c r="M23">
-        <v>0.971871280284006</v>
+        <v>1.000780924768872</v>
       </c>
       <c r="N23">
-        <v>0.9824741121670689</v>
+        <v>1.015409885347957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9651087958811245</v>
+        <v>0.9964135453350035</v>
       </c>
       <c r="D24">
-        <v>0.99123557318559</v>
+        <v>1.016691836756603</v>
       </c>
       <c r="E24">
-        <v>0.9737706362114146</v>
+        <v>1.000750795846856</v>
       </c>
       <c r="F24">
-        <v>0.9724910430228232</v>
+        <v>0.9994050233396985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030927927700594</v>
+        <v>1.044468868778538</v>
       </c>
       <c r="J24">
-        <v>0.9940194162465454</v>
+        <v>1.024050355304368</v>
       </c>
       <c r="K24">
-        <v>1.005418370243267</v>
+        <v>1.030432031512191</v>
       </c>
       <c r="L24">
-        <v>0.988274576897552</v>
+        <v>1.014764739484967</v>
       </c>
       <c r="M24">
-        <v>0.9870191054158336</v>
+        <v>1.01344259549733</v>
       </c>
       <c r="N24">
-        <v>0.9954310378332364</v>
+        <v>1.025504624269118</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9826085586375941</v>
+        <v>1.010734158335574</v>
       </c>
       <c r="D25">
-        <v>1.004943487850073</v>
+        <v>1.028177316719135</v>
       </c>
       <c r="E25">
-        <v>0.9889364637683914</v>
+        <v>1.013210060728378</v>
       </c>
       <c r="F25">
-        <v>0.9903607289087391</v>
+        <v>1.014737273275415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038097898215404</v>
+        <v>1.051243339469758</v>
       </c>
       <c r="J25">
-        <v>1.007735731945668</v>
+        <v>1.03490559765932</v>
       </c>
       <c r="K25">
-        <v>1.017465544205766</v>
+        <v>1.040353414512719</v>
       </c>
       <c r="L25">
-        <v>1.001708989652752</v>
+        <v>1.025606711104763</v>
       </c>
       <c r="M25">
-        <v>1.003110548179445</v>
+        <v>1.027111039961258</v>
       </c>
       <c r="N25">
-        <v>1.009166832273936</v>
+        <v>1.036375282313327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021429655518605</v>
+        <v>1.01266167259025</v>
       </c>
       <c r="D2">
-        <v>1.036768888549581</v>
+        <v>1.029861738693255</v>
       </c>
       <c r="E2">
-        <v>1.02251672178669</v>
+        <v>1.017254698495509</v>
       </c>
       <c r="F2">
-        <v>1.026211717299662</v>
+        <v>1.0184164896721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056256920247073</v>
+        <v>1.051326220396627</v>
       </c>
       <c r="J2">
-        <v>1.042987770506839</v>
+        <v>1.034470159750382</v>
       </c>
       <c r="K2">
-        <v>1.047738681400041</v>
+        <v>1.04092015599399</v>
       </c>
       <c r="L2">
-        <v>1.033671028454344</v>
+        <v>1.028478769899978</v>
       </c>
       <c r="M2">
-        <v>1.037317570800743</v>
+        <v>1.029625080018316</v>
       </c>
       <c r="N2">
-        <v>1.044468932773329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015006170244987</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040004375673141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028830036347626</v>
+        <v>1.017086466852461</v>
       </c>
       <c r="D3">
-        <v>1.042719293652222</v>
+        <v>1.032899987607392</v>
       </c>
       <c r="E3">
-        <v>1.02895530783695</v>
+        <v>1.020804290175002</v>
       </c>
       <c r="F3">
-        <v>1.034164975649649</v>
+        <v>1.02367943585264</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059698490309269</v>
+        <v>1.052875065055074</v>
       </c>
       <c r="J3">
-        <v>1.048564471395241</v>
+        <v>1.037121932506676</v>
       </c>
       <c r="K3">
-        <v>1.05283326299541</v>
+        <v>1.043128525791083</v>
       </c>
       <c r="L3">
-        <v>1.039230634492158</v>
+        <v>1.031177720360924</v>
       </c>
       <c r="M3">
-        <v>1.044378603190247</v>
+        <v>1.034018040119455</v>
       </c>
       <c r="N3">
-        <v>1.050053553216648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015925279076937</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041563222036683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033465233014108</v>
+        <v>1.019892232772157</v>
       </c>
       <c r="D4">
-        <v>1.04644837993065</v>
+        <v>1.034830336189229</v>
       </c>
       <c r="E4">
-        <v>1.032987243411158</v>
+        <v>1.023060770360276</v>
       </c>
       <c r="F4">
-        <v>1.039153013450119</v>
+        <v>1.027017814066833</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061841170465745</v>
+        <v>1.053847522938571</v>
       </c>
       <c r="J4">
-        <v>1.052049976008732</v>
+        <v>1.038800426679894</v>
       </c>
       <c r="K4">
-        <v>1.056016760316325</v>
+        <v>1.044525806203441</v>
       </c>
       <c r="L4">
-        <v>1.042703198171115</v>
+        <v>1.032888616508252</v>
       </c>
       <c r="M4">
-        <v>1.048800790002296</v>
+        <v>1.036800736869673</v>
       </c>
       <c r="N4">
-        <v>1.053544007646483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016506972188184</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042552108153158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035379269260742</v>
+        <v>1.021063232927913</v>
       </c>
       <c r="D5">
-        <v>1.047988669138518</v>
+        <v>1.03563908963725</v>
       </c>
       <c r="E5">
-        <v>1.034651906937351</v>
+        <v>1.024004549585329</v>
       </c>
       <c r="F5">
-        <v>1.04121433824515</v>
+        <v>1.028410144200712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062722816727995</v>
+        <v>1.054252683164556</v>
       </c>
       <c r="J5">
-        <v>1.053487439192907</v>
+        <v>1.039501988028227</v>
       </c>
       <c r="K5">
-        <v>1.05732949596606</v>
+        <v>1.045111290989783</v>
       </c>
       <c r="L5">
-        <v>1.044134775886413</v>
+        <v>1.033604082122514</v>
       </c>
       <c r="M5">
-        <v>1.050626757842201</v>
+        <v>1.037961044550684</v>
       </c>
       <c r="N5">
-        <v>1.054983512193259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016750997787563</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042973235103775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035698673299664</v>
+        <v>1.021264804949511</v>
       </c>
       <c r="D6">
-        <v>1.048245726642535</v>
+        <v>1.03578107606759</v>
       </c>
       <c r="E6">
-        <v>1.034929679697522</v>
+        <v>1.024167934144181</v>
       </c>
       <c r="F6">
-        <v>1.041558414875204</v>
+        <v>1.02864828079245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062869755173897</v>
+        <v>1.054324297535209</v>
       </c>
       <c r="J6">
-        <v>1.053727206839199</v>
+        <v>1.039624868532662</v>
       </c>
       <c r="K6">
-        <v>1.057548448412876</v>
+        <v>1.045215769325</v>
       </c>
       <c r="L6">
-        <v>1.04437352937786</v>
+        <v>1.033729134641746</v>
       </c>
       <c r="M6">
-        <v>1.050931459112935</v>
+        <v>1.038160259353742</v>
       </c>
       <c r="N6">
-        <v>1.055223620337111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016794854611929</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043055818567149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033490941763723</v>
+        <v>1.019923358696905</v>
       </c>
       <c r="D7">
-        <v>1.046469067071297</v>
+        <v>1.034859111098727</v>
       </c>
       <c r="E7">
-        <v>1.033009603790579</v>
+        <v>1.023088159553676</v>
       </c>
       <c r="F7">
-        <v>1.039180694224661</v>
+        <v>1.027050628145585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06185302496171</v>
+        <v>1.053863693992763</v>
       </c>
       <c r="J7">
-        <v>1.052069290851725</v>
+        <v>1.038824888115467</v>
       </c>
       <c r="K7">
-        <v>1.0560343999415</v>
+        <v>1.044551395480576</v>
       </c>
       <c r="L7">
-        <v>1.042722436114622</v>
+        <v>1.032912782602323</v>
       </c>
       <c r="M7">
-        <v>1.04882531627467</v>
+        <v>1.036830284536752</v>
       </c>
       <c r="N7">
-        <v>1.053563349918768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016518527568634</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042590237699552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023963731728811</v>
+        <v>1.014188719920066</v>
       </c>
       <c r="D8">
-        <v>1.038805966587173</v>
+        <v>1.030918486853846</v>
       </c>
       <c r="E8">
-        <v>1.024721594059437</v>
+        <v>1.018481551501206</v>
       </c>
       <c r="F8">
-        <v>1.02893373891011</v>
+        <v>1.020227275522792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057438109776056</v>
+        <v>1.05186936060969</v>
       </c>
       <c r="J8">
-        <v>1.044898919980204</v>
+        <v>1.035393193517385</v>
       </c>
       <c r="K8">
-        <v>1.049484742005082</v>
+        <v>1.041695321576277</v>
       </c>
       <c r="L8">
-        <v>1.035576792669142</v>
+        <v>1.029416865161374</v>
       </c>
       <c r="M8">
-        <v>1.039735543909382</v>
+        <v>1.031140052586703</v>
       </c>
       <c r="N8">
-        <v>1.046382796298157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015330129811343</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040575332808302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005895175832139</v>
+        <v>1.003595544068979</v>
       </c>
       <c r="D9">
-        <v>1.024293860183205</v>
+        <v>1.023659873178006</v>
       </c>
       <c r="E9">
-        <v>1.008999575512778</v>
+        <v>1.010015303552009</v>
       </c>
       <c r="F9">
-        <v>1.009552772653734</v>
+        <v>1.007636625687801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048961463471425</v>
+        <v>1.048101204797558</v>
       </c>
       <c r="J9">
-        <v>1.031241464048323</v>
+        <v>1.029021970186916</v>
       </c>
       <c r="K9">
-        <v>1.037004710103183</v>
+        <v>1.03638040384988</v>
       </c>
       <c r="L9">
-        <v>1.021948309050594</v>
+        <v>1.022947952743781</v>
       </c>
       <c r="M9">
-        <v>1.022492741015826</v>
+        <v>1.020607007210229</v>
       </c>
       <c r="N9">
-        <v>1.032705945212321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013118187709641</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036814161840745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.992819884396638</v>
+        <v>0.9961924611017123</v>
       </c>
       <c r="D10">
-        <v>1.013813279268315</v>
+        <v>1.018614725727004</v>
       </c>
       <c r="E10">
-        <v>0.9976251228973853</v>
+        <v>1.004134615481476</v>
       </c>
       <c r="F10">
-        <v>0.9955623162633895</v>
+        <v>0.9988369168869896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042759382197581</v>
+        <v>1.045420432797594</v>
       </c>
       <c r="J10">
-        <v>1.021321302024183</v>
+        <v>1.024557963807735</v>
       </c>
       <c r="K10">
-        <v>1.027937530549207</v>
+        <v>1.032655827056232</v>
       </c>
       <c r="L10">
-        <v>1.012037389283614</v>
+        <v>1.01842961730088</v>
       </c>
       <c r="M10">
-        <v>1.010012159401033</v>
+        <v>1.013227202960404</v>
       </c>
       <c r="N10">
-        <v>1.022771695420248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011570061680282</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034197465814801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9868689387141474</v>
+        <v>0.9929170723602332</v>
       </c>
       <c r="D11">
-        <v>1.009050000526563</v>
+        <v>1.016398110587249</v>
       </c>
       <c r="E11">
-        <v>0.9924503235149148</v>
+        <v>1.001545489218848</v>
       </c>
       <c r="F11">
-        <v>0.9892026820651565</v>
+        <v>0.9949372788053856</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039921201004956</v>
+        <v>1.044229460594956</v>
       </c>
       <c r="J11">
-        <v>1.016798375255032</v>
+        <v>1.022587507134317</v>
       </c>
       <c r="K11">
-        <v>1.023803241635098</v>
+        <v>1.031017269463874</v>
       </c>
       <c r="L11">
-        <v>1.007516034061852</v>
+        <v>1.016438318612531</v>
       </c>
       <c r="M11">
-        <v>1.00433113358975</v>
+        <v>1.009955306381647</v>
       </c>
       <c r="N11">
-        <v>1.018242345576298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01089171973362</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033071839141929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9846105238169643</v>
+        <v>0.9916747152775011</v>
       </c>
       <c r="D12">
-        <v>1.00724349137305</v>
+        <v>1.015553431338957</v>
       </c>
       <c r="E12">
-        <v>0.990486904290793</v>
+        <v>1.000562821048625</v>
       </c>
       <c r="F12">
-        <v>0.9867903036951382</v>
+        <v>0.9934610714730526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03884184726788</v>
+        <v>1.043772580761396</v>
       </c>
       <c r="J12">
-        <v>1.01508078261354</v>
+        <v>1.021835643656497</v>
       </c>
       <c r="K12">
-        <v>1.022233220942139</v>
+        <v>1.030388597750095</v>
       </c>
       <c r="L12">
-        <v>1.005798658187984</v>
+        <v>1.01567924623336</v>
       </c>
       <c r="M12">
-        <v>1.002175033265093</v>
+        <v>1.008714628500165</v>
       </c>
       <c r="N12">
-        <v>1.016522313756244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010630321041272</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032627345584367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850972118651615</v>
+        <v>0.9919396090664142</v>
       </c>
       <c r="D13">
-        <v>1.007632737675936</v>
+        <v>1.015732515526609</v>
       </c>
       <c r="E13">
-        <v>0.9909099983943507</v>
+        <v>1.000771874759201</v>
       </c>
       <c r="F13">
-        <v>0.9873101203311277</v>
+        <v>0.9937764474106824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039074548089338</v>
+        <v>1.043869393986833</v>
       </c>
       <c r="J13">
-        <v>1.015450972623741</v>
+        <v>1.021995175658928</v>
       </c>
       <c r="K13">
-        <v>1.022571605209815</v>
+        <v>1.030521343727519</v>
       </c>
       <c r="L13">
-        <v>1.006168818316769</v>
+        <v>1.015840317530385</v>
       </c>
       <c r="M13">
-        <v>1.002639678184453</v>
+        <v>1.008979421772107</v>
       </c>
       <c r="N13">
-        <v>1.016893029478721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010685267214734</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032718701431425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.986683264432498</v>
+        <v>0.9928137142320124</v>
       </c>
       <c r="D14">
-        <v>1.008901454477421</v>
+        <v>1.016327401407455</v>
       </c>
       <c r="E14">
-        <v>0.9922888922847619</v>
+        <v>1.001463534690803</v>
       </c>
       <c r="F14">
-        <v>0.9890043270101372</v>
+        <v>0.994814730180825</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039832507697994</v>
+        <v>1.044191194927177</v>
       </c>
       <c r="J14">
-        <v>1.016657186530139</v>
+        <v>1.022524623575201</v>
       </c>
       <c r="K14">
-        <v>1.023674183681097</v>
+        <v>1.03096441254349</v>
       </c>
       <c r="L14">
-        <v>1.007374870745273</v>
+        <v>1.016374836272778</v>
       </c>
       <c r="M14">
-        <v>1.004153873561027</v>
+        <v>1.009852198314683</v>
       </c>
       <c r="N14">
-        <v>1.018100956347221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010869637002341</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033033396429897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9876539812710698</v>
+        <v>0.9933548109331318</v>
       </c>
       <c r="D15">
-        <v>1.009678111524584</v>
+        <v>1.016697720655767</v>
       </c>
       <c r="E15">
-        <v>0.9931328838112333</v>
+        <v>1.001892677846649</v>
       </c>
       <c r="F15">
-        <v>0.9900413855861728</v>
+        <v>0.9954562230818381</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040296111018429</v>
+        <v>1.044391524758028</v>
       </c>
       <c r="J15">
-        <v>1.017395285172078</v>
+        <v>1.022853894850969</v>
       </c>
       <c r="K15">
-        <v>1.024348865327185</v>
+        <v>1.03124124801761</v>
       </c>
       <c r="L15">
-        <v>1.008112821243571</v>
+        <v>1.016707259438089</v>
       </c>
       <c r="M15">
-        <v>1.005080595167512</v>
+        <v>1.01039193279922</v>
       </c>
       <c r="N15">
-        <v>1.018840103173893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010985318113319</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033235017163465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99320836435939</v>
+        <v>0.9964461639515254</v>
       </c>
       <c r="D16">
-        <v>1.01412438059921</v>
+        <v>1.018803349941179</v>
       </c>
       <c r="E16">
-        <v>0.9979629890201803</v>
+        <v>1.004342164733786</v>
       </c>
       <c r="F16">
-        <v>0.9959776339935447</v>
+        <v>0.9991285023542535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042944346748006</v>
+        <v>1.045524202667006</v>
       </c>
       <c r="J16">
-        <v>1.021616402216509</v>
+        <v>1.024724255888155</v>
       </c>
       <c r="K16">
-        <v>1.02820727052378</v>
+        <v>1.032805499462922</v>
       </c>
       <c r="L16">
-        <v>1.012332333775969</v>
+        <v>1.018597011489645</v>
       </c>
       <c r="M16">
-        <v>1.010383002731864</v>
+        <v>1.013476785736379</v>
       </c>
       <c r="N16">
-        <v>1.023067214688695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011636041909245</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034344172795737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.996612053318232</v>
+        <v>0.9983601909835693</v>
       </c>
       <c r="D17">
-        <v>1.016850888374594</v>
+        <v>1.020108822631308</v>
       </c>
       <c r="E17">
-        <v>1.000923466517577</v>
+        <v>1.005861159425142</v>
       </c>
       <c r="F17">
-        <v>0.9996173402742101</v>
+        <v>1.001402027882293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04456319547163</v>
+        <v>1.046222531244174</v>
       </c>
       <c r="J17">
-        <v>1.024201050783851</v>
+        <v>1.025881530808712</v>
       </c>
       <c r="K17">
-        <v>1.03056977350166</v>
+        <v>1.033773224427626</v>
       </c>
       <c r="L17">
-        <v>1.014915323371867</v>
+        <v>1.019767195853363</v>
       </c>
       <c r="M17">
-        <v>1.013632082229809</v>
+        <v>1.015385519047816</v>
       </c>
       <c r="N17">
-        <v>1.025655533753467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012038678253041</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03503097937899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985697952153505</v>
+        <v>0.9994561356394916</v>
       </c>
       <c r="D18">
-        <v>1.018419746772125</v>
+        <v>1.020851802475587</v>
       </c>
       <c r="E18">
-        <v>1.002626462783658</v>
+        <v>1.006729720284842</v>
       </c>
       <c r="F18">
-        <v>1.001711571206272</v>
+        <v>1.002706936599584</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045492878856334</v>
+        <v>1.046617694798754</v>
       </c>
       <c r="J18">
-        <v>1.02568694306265</v>
+        <v>1.026539705272045</v>
       </c>
       <c r="K18">
-        <v>1.03192792965403</v>
+        <v>1.034320058458128</v>
       </c>
       <c r="L18">
-        <v>1.016400013545278</v>
+        <v>1.020433292358803</v>
       </c>
       <c r="M18">
-        <v>1.015500825959379</v>
+        <v>1.016479107810999</v>
       </c>
       <c r="N18">
-        <v>1.027143536169736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01226506654196</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035405954208068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9992327844863765</v>
+        <v>0.9998373925828394</v>
       </c>
       <c r="D19">
-        <v>1.018951141062345</v>
+        <v>1.021114365307099</v>
       </c>
       <c r="E19">
-        <v>1.003203209540932</v>
+        <v>1.007033594054389</v>
       </c>
       <c r="F19">
-        <v>1.002420908413719</v>
+        <v>1.003158416899939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045807468261343</v>
+        <v>1.046757800667824</v>
       </c>
       <c r="J19">
-        <v>1.026190010719094</v>
+        <v>1.026771881266531</v>
       </c>
       <c r="K19">
-        <v>1.03238774541562</v>
+        <v>1.034515681083244</v>
       </c>
       <c r="L19">
-        <v>1.01690263162991</v>
+        <v>1.020668114928101</v>
       </c>
       <c r="M19">
-        <v>1.016133664428099</v>
+        <v>1.016858601732038</v>
       </c>
       <c r="N19">
-        <v>1.027647318239954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012346969559571</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035550666804537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9962497521668564</v>
+        <v>0.9981548379655573</v>
       </c>
       <c r="D20">
-        <v>1.016560603366973</v>
+        <v>1.019968298602582</v>
       </c>
       <c r="E20">
-        <v>1.00060832260924</v>
+        <v>1.005697942633828</v>
       </c>
       <c r="F20">
-        <v>0.999229840292467</v>
+        <v>1.001158356076069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04439102957865</v>
+        <v>1.046147440634544</v>
       </c>
       <c r="J20">
-        <v>1.023926008975174</v>
+        <v>1.025757073279359</v>
       </c>
       <c r="K20">
-        <v>1.030318373597376</v>
+        <v>1.033668887624878</v>
       </c>
       <c r="L20">
-        <v>1.014640483824724</v>
+        <v>1.019641335106897</v>
       </c>
       <c r="M20">
-        <v>1.013286245562053</v>
+        <v>1.015180867723705</v>
       </c>
       <c r="N20">
-        <v>1.025380101353874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011995173487704</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03495587226763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.986217575210907</v>
+        <v>0.9925694232299394</v>
       </c>
       <c r="D21">
-        <v>1.008528906051634</v>
+        <v>1.016166549090191</v>
       </c>
       <c r="E21">
-        <v>0.9918840146362651</v>
+        <v>1.001272458452349</v>
       </c>
       <c r="F21">
-        <v>0.9885068512732472</v>
+        <v>0.9945211343815643</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039610020336806</v>
+        <v>1.044105099027583</v>
       </c>
       <c r="J21">
-        <v>1.016303053744327</v>
+        <v>1.022381132750957</v>
       </c>
       <c r="K21">
-        <v>1.023350477434647</v>
+        <v>1.030847980398896</v>
       </c>
       <c r="L21">
-        <v>1.007020795646615</v>
+        <v>1.016229763752967</v>
       </c>
       <c r="M21">
-        <v>1.003709286121699</v>
+        <v>1.009607054340156</v>
       </c>
       <c r="N21">
-        <v>1.017746320652233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010822556561811</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032964625903857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9796296686391938</v>
+        <v>0.9889569909294668</v>
       </c>
       <c r="D22">
-        <v>1.003261682152682</v>
+        <v>1.013706993108767</v>
       </c>
       <c r="E22">
-        <v>0.9861576406876738</v>
+        <v>0.9984155544008305</v>
       </c>
       <c r="F22">
-        <v>0.9814719337649395</v>
+        <v>0.9902318119633994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0364573003294</v>
+        <v>1.042769646307097</v>
       </c>
       <c r="J22">
-        <v>1.011290723575012</v>
+        <v>1.020189642800958</v>
       </c>
       <c r="K22">
-        <v>1.018768800221924</v>
+        <v>1.029011716009911</v>
       </c>
       <c r="L22">
-        <v>1.002008396969077</v>
+        <v>1.014018464949753</v>
       </c>
       <c r="M22">
-        <v>0.9974195929302297</v>
+        <v>1.005999294397964</v>
       </c>
       <c r="N22">
-        <v>1.012726872399156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010057744599752</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031652765843276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831502971988026</v>
+        <v>0.9908650778480067</v>
       </c>
       <c r="D23">
-        <v>1.006075809543504</v>
+        <v>1.014999034067425</v>
       </c>
       <c r="E23">
-        <v>0.9892175574311755</v>
+        <v>0.9999210473332732</v>
       </c>
       <c r="F23">
-        <v>0.9852308432272868</v>
+        <v>0.9925016602071653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038143343210725</v>
+        <v>1.043471412289591</v>
       </c>
       <c r="J23">
-        <v>1.013969931740908</v>
+        <v>1.021342059692195</v>
       </c>
       <c r="K23">
-        <v>1.021217811454556</v>
+        <v>1.029973030183499</v>
       </c>
       <c r="L23">
-        <v>1.004687842751294</v>
+        <v>1.015181220689135</v>
       </c>
       <c r="M23">
-        <v>1.000780924768872</v>
+        <v>1.007906844871268</v>
       </c>
       <c r="N23">
-        <v>1.015409885347957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01045645235074</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032322794141689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9964135453350035</v>
+        <v>0.9982229858305935</v>
       </c>
       <c r="D24">
-        <v>1.016691836756603</v>
+        <v>1.020004211957249</v>
       </c>
       <c r="E24">
-        <v>1.000750795846856</v>
+        <v>1.005747837522133</v>
       </c>
       <c r="F24">
-        <v>0.9994050233396985</v>
+        <v>1.001245861235043</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044468868778538</v>
+        <v>1.046164796233089</v>
       </c>
       <c r="J24">
-        <v>1.024050355304368</v>
+        <v>1.025789612472454</v>
       </c>
       <c r="K24">
-        <v>1.030432031512191</v>
+        <v>1.033688908022134</v>
       </c>
       <c r="L24">
-        <v>1.014764739484967</v>
+        <v>1.019674761007841</v>
       </c>
       <c r="M24">
-        <v>1.01344259549733</v>
+        <v>1.015251133421684</v>
       </c>
       <c r="N24">
-        <v>1.025504624269118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012001079313531</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034942588867782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010734158335574</v>
+        <v>1.00641777554429</v>
       </c>
       <c r="D25">
-        <v>1.028177316719135</v>
+        <v>1.025600946123377</v>
       </c>
       <c r="E25">
-        <v>1.013210060728378</v>
+        <v>1.012269237797673</v>
       </c>
       <c r="F25">
-        <v>1.014737273275415</v>
+        <v>1.010983742570581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051243339469758</v>
+        <v>1.049121930676285</v>
       </c>
       <c r="J25">
-        <v>1.03490559765932</v>
+        <v>1.030731069584133</v>
       </c>
       <c r="K25">
-        <v>1.040353414512719</v>
+        <v>1.037814426694446</v>
       </c>
       <c r="L25">
-        <v>1.025606711104763</v>
+        <v>1.024680029184848</v>
       </c>
       <c r="M25">
-        <v>1.027111039961258</v>
+        <v>1.023413909744881</v>
       </c>
       <c r="N25">
-        <v>1.036375282313327</v>
+        <v>1.01371697065711</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037856676302065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01266167259025</v>
+        <v>1.011883146205842</v>
       </c>
       <c r="D2">
-        <v>1.029861738693255</v>
+        <v>1.028583274150509</v>
       </c>
       <c r="E2">
-        <v>1.017254698495509</v>
+        <v>1.016623658959594</v>
       </c>
       <c r="F2">
-        <v>1.0184164896721</v>
+        <v>1.017630490384854</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051326220396627</v>
+        <v>1.050639690038948</v>
       </c>
       <c r="J2">
-        <v>1.034470159750382</v>
+        <v>1.033714151950438</v>
       </c>
       <c r="K2">
-        <v>1.04092015599399</v>
+        <v>1.039658258604713</v>
       </c>
       <c r="L2">
-        <v>1.028478769899978</v>
+        <v>1.027856157693754</v>
       </c>
       <c r="M2">
-        <v>1.029625080018316</v>
+        <v>1.02884954944435</v>
       </c>
       <c r="N2">
-        <v>1.015006170244987</v>
+        <v>1.015902175345895</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040004375673141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039120866924324</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022504635751365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017086466852461</v>
+        <v>1.016036531795262</v>
       </c>
       <c r="D3">
-        <v>1.032899987607392</v>
+        <v>1.031313078895244</v>
       </c>
       <c r="E3">
-        <v>1.020804290175002</v>
+        <v>1.019931303168146</v>
       </c>
       <c r="F3">
-        <v>1.02367943585264</v>
+        <v>1.022643838934476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052875065055074</v>
+        <v>1.052000335155734</v>
       </c>
       <c r="J3">
-        <v>1.037121932506676</v>
+        <v>1.036099370530164</v>
       </c>
       <c r="K3">
-        <v>1.043128525791083</v>
+        <v>1.041560386340203</v>
       </c>
       <c r="L3">
-        <v>1.031177720360924</v>
+        <v>1.030315355918331</v>
       </c>
       <c r="M3">
-        <v>1.034018040119455</v>
+        <v>1.03299495910511</v>
       </c>
       <c r="N3">
-        <v>1.015925279076937</v>
+        <v>1.016553152158209</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041563222036683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040462894455966</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022918826177783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019892232772157</v>
+        <v>1.01867237615236</v>
       </c>
       <c r="D4">
-        <v>1.034830336189229</v>
+        <v>1.033049267249169</v>
       </c>
       <c r="E4">
-        <v>1.023060770360276</v>
+        <v>1.022036162998045</v>
       </c>
       <c r="F4">
-        <v>1.027017814066833</v>
+        <v>1.02582628466058</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053847522938571</v>
+        <v>1.052854235499279</v>
       </c>
       <c r="J4">
-        <v>1.038800426679894</v>
+        <v>1.037610207636664</v>
       </c>
       <c r="K4">
-        <v>1.044525806203441</v>
+        <v>1.042764531193359</v>
       </c>
       <c r="L4">
-        <v>1.032888616508252</v>
+        <v>1.031875711219401</v>
       </c>
       <c r="M4">
-        <v>1.036800736869673</v>
+        <v>1.035622689648922</v>
       </c>
       <c r="N4">
-        <v>1.016506972188184</v>
+        <v>1.016965599519462</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042552108153158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041315298891122</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023178621297145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021063232927913</v>
+        <v>1.019772699153526</v>
       </c>
       <c r="D5">
-        <v>1.03563908963725</v>
+        <v>1.033777178017847</v>
       </c>
       <c r="E5">
-        <v>1.024004549585329</v>
+        <v>1.022916793903869</v>
       </c>
       <c r="F5">
-        <v>1.028410144200712</v>
+        <v>1.027153845456793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054252683164556</v>
+        <v>1.053209974836752</v>
       </c>
       <c r="J5">
-        <v>1.039501988028227</v>
+        <v>1.038241866569695</v>
       </c>
       <c r="K5">
-        <v>1.045111290989783</v>
+        <v>1.04326952025843</v>
       </c>
       <c r="L5">
-        <v>1.033604082122514</v>
+        <v>1.032528413205959</v>
       </c>
       <c r="M5">
-        <v>1.037961044550684</v>
+        <v>1.036718561504989</v>
       </c>
       <c r="N5">
-        <v>1.016750997787563</v>
+        <v>1.01713869013231</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042973235103775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041680222231703</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023287682703336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021264804949511</v>
+        <v>1.01996182740817</v>
       </c>
       <c r="D6">
-        <v>1.03578107606759</v>
+        <v>1.033905103727097</v>
       </c>
       <c r="E6">
-        <v>1.024167934144181</v>
+        <v>1.023068989882695</v>
       </c>
       <c r="F6">
-        <v>1.02864828079245</v>
+        <v>1.027380602941492</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054324297535209</v>
+        <v>1.053272949887726</v>
       </c>
       <c r="J6">
-        <v>1.039624868532662</v>
+        <v>1.038352437582093</v>
       </c>
       <c r="K6">
-        <v>1.045215769325</v>
+        <v>1.043359996817611</v>
       </c>
       <c r="L6">
-        <v>1.033729134641746</v>
+        <v>1.032642344536863</v>
       </c>
       <c r="M6">
-        <v>1.038160259353742</v>
+        <v>1.036906454964569</v>
       </c>
       <c r="N6">
-        <v>1.016794854611929</v>
+        <v>1.017169754721195</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043055818567149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041753777595687</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023308031216402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019923358696905</v>
+        <v>1.018710741459371</v>
       </c>
       <c r="D7">
-        <v>1.034859111098727</v>
+        <v>1.033082844196286</v>
       </c>
       <c r="E7">
-        <v>1.023088159553676</v>
+        <v>1.022070233222956</v>
       </c>
       <c r="F7">
-        <v>1.027050628145585</v>
+        <v>1.025865477221747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053863693992763</v>
+        <v>1.052874173603422</v>
       </c>
       <c r="J7">
-        <v>1.038824888115467</v>
+        <v>1.037641719140557</v>
       </c>
       <c r="K7">
-        <v>1.044551395480576</v>
+        <v>1.042794861101569</v>
       </c>
       <c r="L7">
-        <v>1.032912782602323</v>
+        <v>1.031906477294684</v>
       </c>
       <c r="M7">
-        <v>1.036830284536752</v>
+        <v>1.035658537991023</v>
       </c>
       <c r="N7">
-        <v>1.016518527568634</v>
+        <v>1.017002899342633</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042590237699552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041358786813773</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023188487548536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014188719920066</v>
+        <v>1.013345613604334</v>
       </c>
       <c r="D8">
-        <v>1.030918486853846</v>
+        <v>1.029555515301948</v>
       </c>
       <c r="E8">
-        <v>1.018481551501206</v>
+        <v>1.01779413337441</v>
       </c>
       <c r="F8">
-        <v>1.020227275522792</v>
+        <v>1.019380926435141</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05186936060969</v>
+        <v>1.05113403259901</v>
       </c>
       <c r="J8">
-        <v>1.035393193517385</v>
+        <v>1.034573645803094</v>
       </c>
       <c r="K8">
-        <v>1.041695321576277</v>
+        <v>1.04034948476261</v>
       </c>
       <c r="L8">
-        <v>1.029416865161374</v>
+        <v>1.028738347877568</v>
       </c>
       <c r="M8">
-        <v>1.031140052586703</v>
+        <v>1.030304617466528</v>
       </c>
       <c r="N8">
-        <v>1.015330129811343</v>
+        <v>1.016220510039536</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040575332808302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039634743658663</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022661791544728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003595544068979</v>
+        <v>1.003422014810649</v>
       </c>
       <c r="D9">
-        <v>1.023659873178006</v>
+        <v>1.02304852971826</v>
       </c>
       <c r="E9">
-        <v>1.010015303552009</v>
+        <v>1.009924179155568</v>
       </c>
       <c r="F9">
-        <v>1.007636625687801</v>
+        <v>1.007408404937292</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048101204797558</v>
+        <v>1.047824492463545</v>
       </c>
       <c r="J9">
-        <v>1.029021970186916</v>
+        <v>1.028854508941975</v>
       </c>
       <c r="K9">
-        <v>1.03638040384988</v>
+        <v>1.035778409878424</v>
       </c>
       <c r="L9">
-        <v>1.022947952743781</v>
+        <v>1.022858269636797</v>
       </c>
       <c r="M9">
-        <v>1.020607007210229</v>
+        <v>1.020382418668737</v>
       </c>
       <c r="N9">
-        <v>1.013118187709641</v>
+        <v>1.014668200252751</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036814161840745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036399252033213</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02165093052787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9961924611017123</v>
+        <v>0.9965473940687622</v>
       </c>
       <c r="D10">
-        <v>1.018614725727004</v>
+        <v>1.018572210805765</v>
       </c>
       <c r="E10">
-        <v>1.004134615481476</v>
+        <v>1.004514871537758</v>
       </c>
       <c r="F10">
-        <v>0.9988369168869896</v>
+        <v>0.9990983253544462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045420432797594</v>
+        <v>1.045494403429062</v>
       </c>
       <c r="J10">
-        <v>1.024557963807735</v>
+        <v>1.024898668778041</v>
       </c>
       <c r="K10">
-        <v>1.032655827056232</v>
+        <v>1.032614043947374</v>
       </c>
       <c r="L10">
-        <v>1.01842961730088</v>
+        <v>1.018803084274217</v>
       </c>
       <c r="M10">
-        <v>1.013227202960404</v>
+        <v>1.013483878922002</v>
       </c>
       <c r="N10">
-        <v>1.011570061680282</v>
+        <v>1.013711266533535</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034197465814801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034180352422982</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020944629211969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9929170723602332</v>
+        <v>0.9935819693920268</v>
       </c>
       <c r="D11">
-        <v>1.016398110587249</v>
+        <v>1.016664151854112</v>
       </c>
       <c r="E11">
-        <v>1.001545489218848</v>
+        <v>1.002205726820847</v>
       </c>
       <c r="F11">
-        <v>0.9949372788053856</v>
+        <v>0.9954850993816536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044229460594956</v>
+        <v>1.04449952663117</v>
       </c>
       <c r="J11">
-        <v>1.022587507134317</v>
+        <v>1.023224205011217</v>
       </c>
       <c r="K11">
-        <v>1.031017269463874</v>
+        <v>1.03127850349884</v>
       </c>
       <c r="L11">
-        <v>1.016438318612531</v>
+        <v>1.017086165901001</v>
       </c>
       <c r="M11">
-        <v>1.009955306381647</v>
+        <v>1.010492665360026</v>
       </c>
       <c r="N11">
-        <v>1.01089171973362</v>
+        <v>1.013496902174408</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033071839141929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033272192742251</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020655266002481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916747152775011</v>
+        <v>0.9924655133879052</v>
       </c>
       <c r="D12">
-        <v>1.015553431338957</v>
+        <v>1.015942641046563</v>
       </c>
       <c r="E12">
-        <v>1.000562821048625</v>
+        <v>1.001337397982309</v>
       </c>
       <c r="F12">
-        <v>0.9934610714730526</v>
+        <v>0.9941252931931075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043772580761396</v>
+        <v>1.044121417383082</v>
       </c>
       <c r="J12">
-        <v>1.021835643656497</v>
+        <v>1.022592204987525</v>
       </c>
       <c r="K12">
-        <v>1.030388597750095</v>
+        <v>1.030770648990694</v>
       </c>
       <c r="L12">
-        <v>1.01567924623336</v>
+        <v>1.016439020333453</v>
       </c>
       <c r="M12">
-        <v>1.008714628500165</v>
+        <v>1.009365915466632</v>
       </c>
       <c r="N12">
-        <v>1.010630321041272</v>
+        <v>1.013431123885988</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032627345584367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032913129066344</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020544122654076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9919396090664142</v>
+        <v>0.9927033743917931</v>
       </c>
       <c r="D13">
-        <v>1.015732515526609</v>
+        <v>1.016095301691364</v>
       </c>
       <c r="E13">
-        <v>1.000771874759201</v>
+        <v>1.001521926026802</v>
       </c>
       <c r="F13">
-        <v>0.9937764474106824</v>
+        <v>0.9944156583645019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043869393986833</v>
+        <v>1.044201330205589</v>
       </c>
       <c r="J13">
-        <v>1.021995175658928</v>
+        <v>1.022726019600495</v>
       </c>
       <c r="K13">
-        <v>1.030521343727519</v>
+        <v>1.030877482566406</v>
       </c>
       <c r="L13">
-        <v>1.015840317530385</v>
+        <v>1.016576090182667</v>
       </c>
       <c r="M13">
-        <v>1.008979421772107</v>
+        <v>1.009606236844595</v>
       </c>
       <c r="N13">
-        <v>1.010685267214734</v>
+        <v>1.013443695329366</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032718701431425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032985920602835</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020567147917784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9928137142320124</v>
+        <v>0.9934889928842169</v>
       </c>
       <c r="D14">
-        <v>1.016327401407455</v>
+        <v>1.016603611228183</v>
       </c>
       <c r="E14">
-        <v>1.001463534690803</v>
+        <v>1.0021332101146</v>
       </c>
       <c r="F14">
-        <v>0.994814730180825</v>
+        <v>0.9953721414921751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044191194927177</v>
+        <v>1.044467762804964</v>
       </c>
       <c r="J14">
-        <v>1.022524623575201</v>
+        <v>1.023171213683978</v>
       </c>
       <c r="K14">
-        <v>1.03096441254349</v>
+        <v>1.031235624032314</v>
       </c>
       <c r="L14">
-        <v>1.016374836272778</v>
+        <v>1.017031925244872</v>
       </c>
       <c r="M14">
-        <v>1.009852198314683</v>
+        <v>1.010398947579997</v>
       </c>
       <c r="N14">
-        <v>1.010869637002341</v>
+        <v>1.01349078077108</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033033396429897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033240701508894</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020645729190599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933548109331318</v>
+        <v>0.9939760328034987</v>
       </c>
       <c r="D15">
-        <v>1.016697720655767</v>
+        <v>1.016920918919476</v>
       </c>
       <c r="E15">
-        <v>1.001892677846649</v>
+        <v>1.002513224021514</v>
       </c>
       <c r="F15">
-        <v>0.9954562230818381</v>
+        <v>0.9959637026494257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044391524758028</v>
+        <v>1.044634210381657</v>
       </c>
       <c r="J15">
-        <v>1.022853894850969</v>
+        <v>1.023448960867356</v>
       </c>
       <c r="K15">
-        <v>1.03124124801761</v>
+        <v>1.031460438372209</v>
       </c>
       <c r="L15">
-        <v>1.016707259438089</v>
+        <v>1.017316234764987</v>
       </c>
       <c r="M15">
-        <v>1.01039193279922</v>
+        <v>1.01088978774467</v>
       </c>
       <c r="N15">
-        <v>1.010985318113319</v>
+        <v>1.013523636379099</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033235017163465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033406107526297</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020695787307559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9964461639515254</v>
+        <v>0.9967762222977394</v>
       </c>
       <c r="D16">
-        <v>1.018803349941179</v>
+        <v>1.018736664121509</v>
       </c>
       <c r="E16">
-        <v>1.004342164733786</v>
+        <v>1.004699355655359</v>
       </c>
       <c r="F16">
-        <v>0.9991285023542535</v>
+        <v>0.99936710453129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045524202667006</v>
+        <v>1.045582633629674</v>
       </c>
       <c r="J16">
-        <v>1.024724255888155</v>
+        <v>1.025041134825253</v>
       </c>
       <c r="K16">
-        <v>1.032805499462922</v>
+        <v>1.032739957641589</v>
       </c>
       <c r="L16">
-        <v>1.018597011489645</v>
+        <v>1.018947847081185</v>
       </c>
       <c r="M16">
-        <v>1.013476785736379</v>
+        <v>1.013711084134485</v>
       </c>
       <c r="N16">
-        <v>1.011636041909245</v>
+        <v>1.013742489054446</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034344172795737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03431423789882</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020977762541341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9983601909835693</v>
+        <v>0.9985256704248539</v>
       </c>
       <c r="D17">
-        <v>1.020108822631308</v>
+        <v>1.01987435156552</v>
       </c>
       <c r="E17">
-        <v>1.005861159425142</v>
+        <v>1.00607015533718</v>
       </c>
       <c r="F17">
-        <v>1.001402027882293</v>
+        <v>1.001488691474176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046222531244174</v>
+        <v>1.046175243307702</v>
       </c>
       <c r="J17">
-        <v>1.025881530808712</v>
+        <v>1.026040623078716</v>
       </c>
       <c r="K17">
-        <v>1.033773224427626</v>
+        <v>1.033542659511806</v>
       </c>
       <c r="L17">
-        <v>1.019767195853363</v>
+        <v>1.019972583310154</v>
       </c>
       <c r="M17">
-        <v>1.015385519047816</v>
+        <v>1.015470668788503</v>
       </c>
       <c r="N17">
-        <v>1.012038678253041</v>
+        <v>1.013917556580397</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03503097937899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034884609039397</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021155732211211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9994561356394916</v>
+        <v>0.9995341885329778</v>
       </c>
       <c r="D18">
-        <v>1.020851802475587</v>
+        <v>1.020526203043108</v>
       </c>
       <c r="E18">
-        <v>1.006729720284842</v>
+        <v>1.006860426978615</v>
       </c>
       <c r="F18">
-        <v>1.002706936599584</v>
+        <v>1.002712807861882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046617694798754</v>
+        <v>1.046513475775742</v>
       </c>
       <c r="J18">
-        <v>1.026539705272045</v>
+        <v>1.026614805221773</v>
       </c>
       <c r="K18">
-        <v>1.034320058458128</v>
+        <v>1.033999790185581</v>
       </c>
       <c r="L18">
-        <v>1.020433292358803</v>
+        <v>1.02056178202472</v>
       </c>
       <c r="M18">
-        <v>1.016479107810999</v>
+        <v>1.016484878434355</v>
       </c>
       <c r="N18">
-        <v>1.01226506654196</v>
+        <v>1.014030244246485</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035405954208068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03519502197582</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021255761218123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998373925828394</v>
+        <v>0.9998855189273108</v>
       </c>
       <c r="D19">
-        <v>1.021114365307099</v>
+        <v>1.020757515457424</v>
       </c>
       <c r="E19">
-        <v>1.007033594054389</v>
+        <v>1.007137396114861</v>
       </c>
       <c r="F19">
-        <v>1.003158416899939</v>
+        <v>1.003136664107181</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046757800667824</v>
+        <v>1.046634065055084</v>
       </c>
       <c r="J19">
-        <v>1.026771881266531</v>
+        <v>1.026818199383211</v>
       </c>
       <c r="K19">
-        <v>1.034515681083244</v>
+        <v>1.034164639273786</v>
       </c>
       <c r="L19">
-        <v>1.020668114928101</v>
+        <v>1.020770167050615</v>
       </c>
       <c r="M19">
-        <v>1.016858601732038</v>
+        <v>1.01683721938433</v>
       </c>
       <c r="N19">
-        <v>1.012346969559571</v>
+        <v>1.014074650547092</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035550666804537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035318597289237</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021293250570211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981548379655573</v>
+        <v>0.9983374025740891</v>
       </c>
       <c r="D20">
-        <v>1.019968298602582</v>
+        <v>1.0197513947538</v>
       </c>
       <c r="E20">
-        <v>1.005697942633828</v>
+        <v>1.00592231199893</v>
       </c>
       <c r="F20">
-        <v>1.001158356076069</v>
+        <v>1.001260790611211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046147440634544</v>
+        <v>1.046111186917347</v>
       </c>
       <c r="J20">
-        <v>1.025757073279359</v>
+        <v>1.025932565349204</v>
       </c>
       <c r="K20">
-        <v>1.033668887624878</v>
+        <v>1.033455608752325</v>
       </c>
       <c r="L20">
-        <v>1.019641335106897</v>
+        <v>1.019861817963506</v>
       </c>
       <c r="M20">
-        <v>1.015180867723705</v>
+        <v>1.015281506705479</v>
       </c>
       <c r="N20">
-        <v>1.011995173487704</v>
+        <v>1.013896915406117</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03495587226763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034821595031422</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021136258027473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9925694232299394</v>
+        <v>0.9932938205195161</v>
       </c>
       <c r="D21">
-        <v>1.016166549090191</v>
+        <v>1.01648542996783</v>
       </c>
       <c r="E21">
-        <v>1.001272458452349</v>
+        <v>1.001987675287276</v>
       </c>
       <c r="F21">
-        <v>0.9945211343815643</v>
+        <v>0.995123437390845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044105099027583</v>
+        <v>1.044410564941765</v>
       </c>
       <c r="J21">
-        <v>1.022381132750957</v>
+        <v>1.023074624999773</v>
       </c>
       <c r="K21">
-        <v>1.030847980398896</v>
+        <v>1.03116106983681</v>
       </c>
       <c r="L21">
-        <v>1.016229763752967</v>
+        <v>1.016931488147261</v>
       </c>
       <c r="M21">
-        <v>1.009607054340156</v>
+        <v>1.01019779048265</v>
       </c>
       <c r="N21">
-        <v>1.010822556561811</v>
+        <v>1.013551763038651</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032964625903857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033202849667725</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020634270528876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9889569909294668</v>
+        <v>0.9900346625619396</v>
       </c>
       <c r="D22">
-        <v>1.013706993108767</v>
+        <v>1.014374311849511</v>
       </c>
       <c r="E22">
-        <v>0.9984155544008305</v>
+        <v>0.9994514910144536</v>
       </c>
       <c r="F22">
-        <v>0.9902318119633994</v>
+        <v>0.9911616571905937</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042769646307097</v>
+        <v>1.043296851058527</v>
       </c>
       <c r="J22">
-        <v>1.020189642800958</v>
+        <v>1.021218562287847</v>
       </c>
       <c r="K22">
-        <v>1.029011716009911</v>
+        <v>1.029666289671871</v>
       </c>
       <c r="L22">
-        <v>1.014018464949753</v>
+        <v>1.01503382181181</v>
       </c>
       <c r="M22">
-        <v>1.005999294397964</v>
+        <v>1.006910260501035</v>
       </c>
       <c r="N22">
-        <v>1.010057744599752</v>
+        <v>1.013313616673201</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031652765843276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032131146681904</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020303172149725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9908650778480067</v>
+        <v>0.991740343984061</v>
       </c>
       <c r="D23">
-        <v>1.014999034067425</v>
+        <v>1.015470254429473</v>
       </c>
       <c r="E23">
-        <v>0.9999210473332732</v>
+        <v>1.000772651391894</v>
       </c>
       <c r="F23">
-        <v>0.9925016602071653</v>
+        <v>0.9932439873011166</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043471412289591</v>
+        <v>1.043872841252843</v>
       </c>
       <c r="J23">
-        <v>1.021342059692195</v>
+        <v>1.022178931861371</v>
       </c>
       <c r="K23">
-        <v>1.029973030183499</v>
+        <v>1.030435485507642</v>
       </c>
       <c r="L23">
-        <v>1.015181220689135</v>
+        <v>1.016016360432149</v>
       </c>
       <c r="M23">
-        <v>1.007906844871268</v>
+        <v>1.008634535168305</v>
       </c>
       <c r="N23">
-        <v>1.01045645235074</v>
+        <v>1.013389640446248</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032322794141689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032664394648315</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020469486278869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9982229858305935</v>
+        <v>0.9984014028366842</v>
       </c>
       <c r="D24">
-        <v>1.020004211957249</v>
+        <v>1.019782368243777</v>
       </c>
       <c r="E24">
-        <v>1.005747837522133</v>
+        <v>1.005968882886606</v>
       </c>
       <c r="F24">
-        <v>1.001245861235043</v>
+        <v>1.001344358868395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046164796233089</v>
+        <v>1.046125619796382</v>
       </c>
       <c r="J24">
-        <v>1.025789612472454</v>
+        <v>1.025961128620636</v>
       </c>
       <c r="K24">
-        <v>1.033688908022134</v>
+        <v>1.033470766775913</v>
       </c>
       <c r="L24">
-        <v>1.019674761007841</v>
+        <v>1.019891982845129</v>
       </c>
       <c r="M24">
-        <v>1.015251133421684</v>
+        <v>1.015347907117938</v>
       </c>
       <c r="N24">
-        <v>1.012001079313531</v>
+        <v>1.013897037217363</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034942588867782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034802203187985</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021136084684315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00641777554429</v>
+        <v>1.006049385488214</v>
       </c>
       <c r="D25">
-        <v>1.025600946123377</v>
+        <v>1.024777592974295</v>
       </c>
       <c r="E25">
-        <v>1.012269237797673</v>
+        <v>1.012003783778423</v>
       </c>
       <c r="F25">
-        <v>1.010983742570581</v>
+        <v>1.010575684170878</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049121930676285</v>
+        <v>1.048714583039505</v>
       </c>
       <c r="J25">
-        <v>1.030731069584133</v>
+        <v>1.030374864780413</v>
       </c>
       <c r="K25">
-        <v>1.037814426694446</v>
+        <v>1.037003070562121</v>
       </c>
       <c r="L25">
-        <v>1.024680029184848</v>
+        <v>1.024418571119541</v>
       </c>
       <c r="M25">
-        <v>1.023413909744881</v>
+        <v>1.023012014985209</v>
       </c>
       <c r="N25">
-        <v>1.01371697065711</v>
+        <v>1.015052881644503</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037856676302065</v>
+        <v>1.037296535984628</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021926304393309</v>
       </c>
     </row>
   </sheetData>
